--- a/biology/Botanique/Ectocarpaceae/Ectocarpaceae.xlsx
+++ b/biology/Botanique/Ectocarpaceae/Ectocarpaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ectocarpaceae sont une famille d’algues brunes de l’ordre des Ectocarpales. 
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Ectocarpus, dérivé du grec ἐκτός / ektós, dehors, et καρπός / karpós, fruit.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (23 août 2017)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (23 août 2017) :
 Capsicarpella Bory
 Ectocarpus Lyngbye
 Epinema P.J.L.Dangeard
@@ -552,7 +568,7 @@
 Pleurocladia A.Braun
 Rotiramulus R.X.Luan
 Spongonema Kützing
-Selon ITIS      (23 août 2017)[2] :
+Selon ITIS      (23 août 2017) :
 Acinetospora
 Bachelotia
 Dichosporangium
@@ -574,7 +590,7 @@
 Spongonema
 Streblonema
 Waerniella
-Selon World Register of Marine Species                               (24 décembre 2022)[3] :
+Selon World Register of Marine Species                               (24 décembre 2022) :
 Ectocarpidium G.Shperk, 1869
 Ectocarpus Lyngbye, 1819
 Epinema P.J.L.Dangeard, 1962
